--- a/MANSAD_artefatos_MED/MANSAD_MED_indicador_NOC_1.0.xlsx
+++ b/MANSAD_artefatos_MED/MANSAD_MED_indicador_NOC_1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="15015" windowHeight="9915" activeTab="6"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="15015" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,18 @@
     <sheet name="Construção I" sheetId="4" r:id="rId4"/>
     <sheet name="Construção II" sheetId="5" r:id="rId5"/>
     <sheet name="Construção III" sheetId="6" r:id="rId6"/>
-    <sheet name="Construção VII" sheetId="10" r:id="rId7"/>
-    <sheet name="Encerramento" sheetId="11" r:id="rId8"/>
+    <sheet name="Construção IV" sheetId="7" r:id="rId7"/>
+    <sheet name="Construção V" sheetId="8" r:id="rId8"/>
+    <sheet name="Construção VI" sheetId="9" r:id="rId9"/>
+    <sheet name="Construção VII" sheetId="10" r:id="rId10"/>
+    <sheet name="Encerramento" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="25">
   <si>
     <t>Número de Ocorrências Críticas</t>
   </si>
@@ -597,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="C3:G8"/>
     </sheetView>
   </sheetViews>
@@ -771,6 +774,1130 @@
       <c r="G8" s="6">
         <v>0</v>
       </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="256" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12">
+        <v>6.9</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>20.8</v>
+      </c>
+      <c r="H3" s="18">
+        <v>19.23076923076923</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0.33173076923076922</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>30.9</v>
+      </c>
+      <c r="H4" s="18">
+        <v>6.4724919093851137</v>
+      </c>
+      <c r="I4" s="19">
+        <v>7.4433656957928807E-2</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>19</v>
+      </c>
+      <c r="H5" s="18">
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>30.2</v>
+      </c>
+      <c r="H6" s="18">
+        <v>3.3112582781456954</v>
+      </c>
+      <c r="I6" s="19">
+        <v>6.6225165562913916E-3</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>26.7</v>
+      </c>
+      <c r="H7" s="18">
+        <v>14.981273408239701</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.2247191011235955</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>292.75</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.68317677198975235</v>
+      </c>
+      <c r="I8" s="19">
+        <v>6.4901793339026473E-3</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2.8818443804034581</v>
+      </c>
+      <c r="I9" s="19">
+        <v>5.7636887608069162E-2</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>10</v>
+      </c>
+      <c r="H10" s="18">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>16</v>
+      </c>
+      <c r="E11" s="12">
+        <v>21.299999999999997</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>465.05</v>
+      </c>
+      <c r="H11" s="18">
+        <v>3.4404902698634556</v>
+      </c>
+      <c r="I11" s="16">
+        <v>4.5801526717557245E-2</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F122" s="10"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F131" s="10"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F137" s="10"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F138" s="10"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F139" s="10"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F140" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="256" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2965,9 +4092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3091,25 +4216,25 @@
         <v>7</v>
       </c>
       <c r="C5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
       </c>
       <c r="E5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="12">
         <v>0</v>
       </c>
       <c r="G5" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="16">
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="J5" s="12">
         <v>0</v>
@@ -3122,25 +4247,25 @@
         <v>8</v>
       </c>
       <c r="C6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
       </c>
       <c r="E6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="12">
         <v>0</v>
       </c>
       <c r="G6" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -3184,25 +4309,25 @@
         <v>12</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12">
         <v>0</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
       </c>
       <c r="G8" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="16">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
@@ -3246,25 +4371,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
       </c>
       <c r="E10" s="12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F10" s="12">
         <v>0</v>
       </c>
       <c r="G10" s="12">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="H10" s="15">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="I10" s="16">
-        <v>0</v>
+        <v>2.9931972789115649E-2</v>
       </c>
       <c r="J10" s="16">
         <v>0</v>
@@ -3571,37 +4696,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="256" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="256" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -3611,297 +4730,118 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
@@ -4158,123 +5098,6 @@
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F103" s="10"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="10"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="10"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F107" s="10"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F108" s="10"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F110" s="10"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F112" s="10"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="10"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F114" s="10"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F115" s="10"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F116" s="10"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F117" s="10"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F118" s="10"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F120" s="10"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F122" s="10"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F124" s="10"/>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F125" s="10"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F126" s="10"/>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F128" s="10"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F129" s="10"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F130" s="10"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F131" s="10"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F132" s="10"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F133" s="10"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F134" s="10"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F136" s="10"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F137" s="10"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F138" s="10"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F139" s="10"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F140" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4693,4 +5516,416 @@
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="256" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>